--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.401496333333333</v>
+        <v>3.931379</v>
       </c>
       <c r="H2">
-        <v>13.204489</v>
+        <v>11.794137</v>
       </c>
       <c r="I2">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="J2">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>98.3504775092981</v>
+        <v>75.53418360706767</v>
       </c>
       <c r="R2">
-        <v>885.1542975836829</v>
+        <v>679.8076524636091</v>
       </c>
       <c r="S2">
-        <v>0.0007567256905969896</v>
+        <v>0.0009504887430583713</v>
       </c>
       <c r="T2">
-        <v>0.0007567256905969897</v>
+        <v>0.0009504887430583712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.401496333333333</v>
+        <v>3.931379</v>
       </c>
       <c r="H3">
-        <v>13.204489</v>
+        <v>11.794137</v>
       </c>
       <c r="I3">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="J3">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>406.9057066565209</v>
+        <v>363.4447081131893</v>
       </c>
       <c r="R3">
-        <v>3662.151359908687</v>
+        <v>3271.002373018704</v>
       </c>
       <c r="S3">
-        <v>0.00313080332373985</v>
+        <v>0.004573427384649703</v>
       </c>
       <c r="T3">
-        <v>0.00313080332373985</v>
+        <v>0.004573427384649702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.401496333333333</v>
+        <v>3.931379</v>
       </c>
       <c r="H4">
-        <v>13.204489</v>
+        <v>11.794137</v>
       </c>
       <c r="I4">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="J4">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>1073.80938039306</v>
+        <v>655.9820437342981</v>
       </c>
       <c r="R4">
-        <v>9664.28442353754</v>
+        <v>5903.838393608684</v>
       </c>
       <c r="S4">
-        <v>0.008262076255508186</v>
+        <v>0.008254587769974042</v>
       </c>
       <c r="T4">
-        <v>0.008262076255508188</v>
+        <v>0.008254587769974042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.401496333333333</v>
+        <v>3.931379</v>
       </c>
       <c r="H5">
-        <v>13.204489</v>
+        <v>11.794137</v>
       </c>
       <c r="I5">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="J5">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>288.1163410065059</v>
+        <v>161.576358816124</v>
       </c>
       <c r="R5">
-        <v>2593.047069058553</v>
+        <v>1454.187229345116</v>
       </c>
       <c r="S5">
-        <v>0.002216817270661586</v>
+        <v>0.002033205402708768</v>
       </c>
       <c r="T5">
-        <v>0.002216817270661586</v>
+        <v>0.002033205402708768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.401496333333333</v>
+        <v>3.931379</v>
       </c>
       <c r="H6">
-        <v>13.204489</v>
+        <v>11.794137</v>
       </c>
       <c r="I6">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="J6">
-        <v>0.0239025023277105</v>
+        <v>0.02135363907444749</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>1239.389665624231</v>
+        <v>440.4104142718496</v>
       </c>
       <c r="R6">
-        <v>11154.50699061808</v>
+        <v>3963.693728446647</v>
       </c>
       <c r="S6">
-        <v>0.00953607978720389</v>
+        <v>0.005541929774056609</v>
       </c>
       <c r="T6">
-        <v>0.00953607978720389</v>
+        <v>0.005541929774056609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>178.7922716666667</v>
       </c>
       <c r="H7">
-        <v>536.3768150000001</v>
+        <v>536.376815</v>
       </c>
       <c r="I7">
-        <v>0.9709386004310691</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="J7">
-        <v>0.9709386004310692</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>3995.074393273867</v>
+        <v>3435.163151554385</v>
       </c>
       <c r="R7">
-        <v>35955.6695394648</v>
+        <v>30916.46836398946</v>
       </c>
       <c r="S7">
-        <v>0.03073879767335857</v>
+        <v>0.04322657305871575</v>
       </c>
       <c r="T7">
-        <v>0.03073879767335858</v>
+        <v>0.04322657305871574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>178.7922716666667</v>
       </c>
       <c r="H8">
-        <v>536.3768150000001</v>
+        <v>536.376815</v>
       </c>
       <c r="I8">
-        <v>0.9709386004310691</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="J8">
-        <v>0.9709386004310692</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>16528.8325009585</v>
@@ -948,10 +948,10 @@
         <v>148759.4925086265</v>
       </c>
       <c r="S8">
-        <v>0.1271757138938883</v>
+        <v>0.2079915142763042</v>
       </c>
       <c r="T8">
-        <v>0.1271757138938883</v>
+        <v>0.2079915142763042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>178.7922716666667</v>
       </c>
       <c r="H9">
-        <v>536.3768150000001</v>
+        <v>536.376815</v>
       </c>
       <c r="I9">
-        <v>0.9709386004310691</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="J9">
-        <v>0.9709386004310692</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>43618.98861609511</v>
+        <v>29832.92116374378</v>
       </c>
       <c r="R9">
-        <v>392570.897544856</v>
+        <v>268496.290473694</v>
       </c>
       <c r="S9">
-        <v>0.3356120897383161</v>
+        <v>0.3754042790241143</v>
       </c>
       <c r="T9">
-        <v>0.3356120897383162</v>
+        <v>0.3754042790241143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>178.7922716666667</v>
       </c>
       <c r="H10">
-        <v>536.3768150000001</v>
+        <v>536.376815</v>
       </c>
       <c r="I10">
-        <v>0.9709386004310691</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="J10">
-        <v>0.9709386004310692</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>11703.51426234847</v>
+        <v>7348.211464822713</v>
       </c>
       <c r="R10">
-        <v>105331.6283611363</v>
+        <v>66133.9031834044</v>
       </c>
       <c r="S10">
-        <v>0.0900488755812099</v>
+        <v>0.09246664153093367</v>
       </c>
       <c r="T10">
-        <v>0.09004887558120991</v>
+        <v>0.09246664153093367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>178.7922716666667</v>
       </c>
       <c r="H11">
-        <v>536.3768150000001</v>
+        <v>536.376815</v>
       </c>
       <c r="I11">
-        <v>0.9709386004310691</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="J11">
-        <v>0.9709386004310692</v>
+        <v>0.9711263244959505</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>50344.99111563047</v>
+        <v>20029.09880561547</v>
       </c>
       <c r="R11">
-        <v>453104.9200406742</v>
+        <v>180261.8892505393</v>
       </c>
       <c r="S11">
-        <v>0.3873631235442963</v>
+        <v>0.2520373166058826</v>
       </c>
       <c r="T11">
-        <v>0.3873631235442963</v>
+        <v>0.2520373166058826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4112366666666667</v>
+        <v>0.303371</v>
       </c>
       <c r="H12">
-        <v>1.23371</v>
+        <v>0.9101129999999999</v>
       </c>
       <c r="I12">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="J12">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>9.188993804152222</v>
+        <v>5.828713236515668</v>
       </c>
       <c r="R12">
-        <v>82.70094423737</v>
+        <v>52.458419128641</v>
       </c>
       <c r="S12">
-        <v>7.070171755578062E-05</v>
+        <v>7.33459481953689E-05</v>
       </c>
       <c r="T12">
-        <v>7.070171755578065E-05</v>
+        <v>7.33459481953689E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4112366666666667</v>
+        <v>0.303371</v>
       </c>
       <c r="H13">
-        <v>1.23371</v>
+        <v>0.9101129999999999</v>
       </c>
       <c r="I13">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="J13">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>38.01764985825778</v>
+        <v>28.04577847747733</v>
       </c>
       <c r="R13">
-        <v>342.15884872432</v>
+        <v>252.412006297296</v>
       </c>
       <c r="S13">
-        <v>0.0002925144144942747</v>
+        <v>0.0003529156662607612</v>
       </c>
       <c r="T13">
-        <v>0.0002925144144942747</v>
+        <v>0.0003529156662607612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4112366666666667</v>
+        <v>0.303371</v>
       </c>
       <c r="H14">
-        <v>1.23371</v>
+        <v>0.9101129999999999</v>
       </c>
       <c r="I14">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="J14">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>100.3271971134</v>
+        <v>50.61987882361832</v>
       </c>
       <c r="R14">
-        <v>902.9447740206001</v>
+        <v>455.5789094125649</v>
       </c>
       <c r="S14">
-        <v>0.0007719349152536691</v>
+        <v>0.0006369781561036968</v>
       </c>
       <c r="T14">
-        <v>0.0007719349152536693</v>
+        <v>0.0006369781561036968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4112366666666667</v>
+        <v>0.303371</v>
       </c>
       <c r="H15">
-        <v>1.23371</v>
+        <v>0.9101129999999999</v>
       </c>
       <c r="I15">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="J15">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>26.91902814740778</v>
+        <v>12.468292054876</v>
       </c>
       <c r="R15">
-        <v>242.27125332667</v>
+        <v>112.214628493884</v>
       </c>
       <c r="S15">
-        <v>0.0002071196874780922</v>
+        <v>0.000156895470069195</v>
       </c>
       <c r="T15">
-        <v>0.0002071196874780922</v>
+        <v>0.000156895470069195</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4112366666666667</v>
+        <v>0.303371</v>
       </c>
       <c r="H16">
-        <v>1.23371</v>
+        <v>0.9101129999999999</v>
       </c>
       <c r="I16">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="J16">
-        <v>0.002233237207946459</v>
+        <v>0.001647786906236771</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>115.7975461509544</v>
+        <v>33.98495738723367</v>
       </c>
       <c r="R16">
-        <v>1042.17791535859</v>
+        <v>305.864616485103</v>
       </c>
       <c r="S16">
-        <v>0.0008909664731646422</v>
+        <v>0.0004276516656077493</v>
       </c>
       <c r="T16">
-        <v>0.0008909664731646423</v>
+        <v>0.0004276516656077493</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.286205</v>
+        <v>0.4669506666666667</v>
       </c>
       <c r="H17">
-        <v>0.858615</v>
+        <v>1.400852</v>
       </c>
       <c r="I17">
-        <v>0.0015542477286404</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="J17">
-        <v>0.001554247728640401</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>6.395188427711666</v>
+        <v>8.971594290818224</v>
       </c>
       <c r="R17">
-        <v>57.556695849405</v>
+        <v>80.74434861736401</v>
       </c>
       <c r="S17">
-        <v>4.920569276341812E-05</v>
+        <v>0.0001128945726754578</v>
       </c>
       <c r="T17">
-        <v>4.920569276341814E-05</v>
+        <v>0.0001128945726754578</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.286205</v>
+        <v>0.4669506666666667</v>
       </c>
       <c r="H18">
-        <v>0.858615</v>
+        <v>1.400852</v>
       </c>
       <c r="I18">
-        <v>0.0015542477286404</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="J18">
-        <v>0.001554247728640401</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>26.45883103245333</v>
+        <v>43.16824929622044</v>
       </c>
       <c r="R18">
-        <v>238.12947929208</v>
+        <v>388.514243665984</v>
       </c>
       <c r="S18">
-        <v>0.0002035788507842213</v>
+        <v>0.0005432101474352305</v>
       </c>
       <c r="T18">
-        <v>0.0002035788507842213</v>
+        <v>0.0005432101474352304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.286205</v>
+        <v>0.4669506666666667</v>
       </c>
       <c r="H19">
-        <v>0.858615</v>
+        <v>1.400852</v>
       </c>
       <c r="I19">
-        <v>0.0015542477286404</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="J19">
-        <v>0.001554247728640401</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>69.8238940671</v>
+        <v>77.91445511691776</v>
       </c>
       <c r="R19">
-        <v>628.4150466039</v>
+        <v>701.2300960522599</v>
       </c>
       <c r="S19">
-        <v>0.0005372371929063791</v>
+        <v>0.0009804410264815204</v>
       </c>
       <c r="T19">
-        <v>0.0005372371929063793</v>
+        <v>0.0009804410264815204</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.286205</v>
+        <v>0.4669506666666667</v>
       </c>
       <c r="H20">
-        <v>0.858615</v>
+        <v>1.400852</v>
       </c>
       <c r="I20">
-        <v>0.0015542477286404</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="J20">
-        <v>0.001554247728640401</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>18.73461457942833</v>
+        <v>19.19127829363733</v>
       </c>
       <c r="R20">
-        <v>168.611531214855</v>
+        <v>172.721504642736</v>
       </c>
       <c r="S20">
-        <v>0.0001441473850937433</v>
+        <v>0.0002414945540140312</v>
       </c>
       <c r="T20">
-        <v>0.0001441473850937433</v>
+        <v>0.0002414945540140312</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.286205</v>
+        <v>0.4669506666666667</v>
       </c>
       <c r="H21">
-        <v>0.858615</v>
+        <v>1.400852</v>
       </c>
       <c r="I21">
-        <v>0.0015542477286404</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="J21">
-        <v>0.001554247728640401</v>
+        <v>0.002536284596721059</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>80.59066562514833</v>
+        <v>52.30987308809023</v>
       </c>
       <c r="R21">
-        <v>725.315990626335</v>
+        <v>470.7888577928121</v>
       </c>
       <c r="S21">
-        <v>0.0006200786070926386</v>
+        <v>0.0006582442961148196</v>
       </c>
       <c r="T21">
-        <v>0.0006200786070926387</v>
+        <v>0.0006582442961148196</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.252537</v>
+        <v>0.6141783333333334</v>
       </c>
       <c r="H22">
-        <v>0.757611</v>
+        <v>1.842535</v>
       </c>
       <c r="I22">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="J22">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>5.642884296112999</v>
+        <v>11.80030187816612</v>
       </c>
       <c r="R22">
-        <v>50.785958665017</v>
+        <v>106.202716903495</v>
       </c>
       <c r="S22">
-        <v>4.341733384600312E-05</v>
+        <v>0.0001484897772673877</v>
       </c>
       <c r="T22">
-        <v>4.341733384600314E-05</v>
+        <v>0.0001484897772673877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.252537</v>
+        <v>0.6141783333333334</v>
       </c>
       <c r="H23">
-        <v>0.757611</v>
+        <v>1.842535</v>
       </c>
       <c r="I23">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="J23">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>23.346321037168</v>
+        <v>56.77902463430222</v>
       </c>
       <c r="R23">
-        <v>210.116889334512</v>
+        <v>511.01122170872</v>
       </c>
       <c r="S23">
-        <v>0.0001796306571880117</v>
+        <v>0.0007144821215978364</v>
       </c>
       <c r="T23">
-        <v>0.0001796306571880117</v>
+        <v>0.0007144821215978364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.252537</v>
+        <v>0.6141783333333334</v>
       </c>
       <c r="H24">
-        <v>0.757611</v>
+        <v>1.842535</v>
       </c>
       <c r="I24">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="J24">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>61.61009324094</v>
+        <v>102.4805693669639</v>
       </c>
       <c r="R24">
-        <v>554.4908391684601</v>
+        <v>922.3251243026749</v>
       </c>
       <c r="S24">
-        <v>0.0004740387798431135</v>
+        <v>0.001289570137836208</v>
       </c>
       <c r="T24">
-        <v>0.0004740387798431136</v>
+        <v>0.001289570137836208</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.252537</v>
+        <v>0.6141783333333334</v>
       </c>
       <c r="H25">
-        <v>0.757611</v>
+        <v>1.842535</v>
       </c>
       <c r="I25">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="J25">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>16.530750203683</v>
+        <v>25.24221113348667</v>
       </c>
       <c r="R25">
-        <v>148.776751833147</v>
+        <v>227.17990020138</v>
       </c>
       <c r="S25">
-        <v>0.0001271904690324022</v>
+        <v>0.0003176368153668217</v>
       </c>
       <c r="T25">
-        <v>0.0001271904690324022</v>
+        <v>0.0003176368153668217</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.252537</v>
+        <v>0.6141783333333334</v>
       </c>
       <c r="H26">
-        <v>0.757611</v>
+        <v>1.842535</v>
       </c>
       <c r="I26">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="J26">
-        <v>0.001371412304633605</v>
+        <v>0.00333596492664424</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>71.110305288091</v>
+        <v>68.80296563117612</v>
       </c>
       <c r="R26">
-        <v>639.992747592819</v>
+        <v>619.2266906805851</v>
       </c>
       <c r="S26">
-        <v>0.0005471350647240743</v>
+        <v>0.000865786074575986</v>
       </c>
       <c r="T26">
-        <v>0.0005471350647240743</v>
+        <v>0.000865786074575986</v>
       </c>
     </row>
   </sheetData>
